--- a/src/project/keyword/ex1/keywords.xlsx
+++ b/src/project/keyword/ex1/keywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Murali\Training\Git\JavaSelenium\src\project\keyword\ex1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098443E-2364-44C7-8AEC-A9036F16EFE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B12C5D-0CD1-406E-A760-2E5F1DCB54F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>URL</t>
   </si>
@@ -169,13 +169,22 @@
   </si>
   <si>
     <t>click logout button</t>
+  </si>
+  <si>
+    <t>WAIT</t>
+  </si>
+  <si>
+    <t>TEST_CASE#5</t>
+  </si>
+  <si>
+    <t>BOTH EMPTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +199,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -206,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -214,14 +242,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E291094E-F7F7-4765-9AF9-7EF75ADB2157}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H23"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +570,8 @@
     <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="5" max="5" width="28.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.77734375" customWidth="1"/>
-    <col min="7" max="8" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="36.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,70 +687,63 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -702,13 +751,13 @@
         <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -716,169 +765,169 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -886,35 +935,139 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
